--- a/codigos/wb8.xlsx
+++ b/codigos/wb8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara Palacios\Documents\SaraUR\Programación\proyecto2\proyecto_final_prog\codigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D4C19-F3B8-48C2-B618-DD8F258DC3E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F955F-67D5-4897-8F79-AD420959C091}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>TIPO DE PRODUCTO</t>
   </si>
@@ -197,13 +197,25 @@
   </si>
   <si>
     <t>5mg</t>
+  </si>
+  <si>
+    <t>16mg</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>6g</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +225,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,10 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -649,43 +670,43 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>0.04</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -720,10 +741,10 @@
         <v>36</v>
       </c>
       <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -832,16 +853,16 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1">
-        <v>0.04</v>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -891,10 +912,10 @@
         <v>56</v>
       </c>
       <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -911,8 +932,12 @@
       <c r="T6" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>